--- a/python/results.xlsx
+++ b/python/results.xlsx
@@ -477,31 +477,31 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>242.1330011999089</v>
+        <v>280.6083226000169</v>
       </c>
       <c r="F2">
-        <v>263.2328990002861</v>
+        <v>313.3857395000064</v>
       </c>
       <c r="G2">
-        <v>400.1308150000114</v>
+        <v>440.2800170000774</v>
       </c>
       <c r="H2">
-        <v>400.1308150000114</v>
+        <v>440.2800170000774</v>
       </c>
       <c r="I2">
-        <v>488.1459930002165</v>
+        <v>474.5290309999746</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.953125</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>20.29133141082809</v>
+        <v>20.78827937184974</v>
       </c>
       <c r="M2">
-        <v>0.4928212840022752</v>
+        <v>0.4810402929999782</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1689.033204420193</v>
+        <v>1281.915887359992</v>
       </c>
       <c r="F3">
-        <v>1780.134147500576</v>
+        <v>1247.140372999922</v>
       </c>
       <c r="G3">
-        <v>2949.643714997364</v>
+        <v>2413.935789000107</v>
       </c>
       <c r="H3">
-        <v>3012.291846000153</v>
+        <v>2521.081558999981</v>
       </c>
       <c r="I3">
-        <v>3080.481766999583</v>
+        <v>2536.891096999966</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.9453125</v>
+        <v>1.9921875</v>
       </c>
       <c r="L3">
-        <v>16.16435011684174</v>
+        <v>19.52018612625472</v>
       </c>
       <c r="M3">
-        <v>3.093226739001693</v>
+        <v>2.561450986000068</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -553,37 +553,37 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D4">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>2400.20375076912</v>
+        <v>2699.232012079999</v>
       </c>
       <c r="F4">
-        <v>2078.478232000634</v>
+        <v>2585.395463999987</v>
       </c>
       <c r="G4">
-        <v>5081.330983000953</v>
+        <v>5247.100844999977</v>
       </c>
       <c r="H4">
-        <v>5286.545663999277</v>
+        <v>5481.217112999957</v>
       </c>
       <c r="I4">
-        <v>5312.581899001088</v>
+        <v>5529.92344200004</v>
       </c>
       <c r="J4">
-        <v>0.1612903225806452</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="K4">
-        <v>1.9765625</v>
+        <v>1.984375</v>
       </c>
       <c r="L4">
-        <v>10.68709665290167</v>
+        <v>17.93840577328437</v>
       </c>
       <c r="M4">
-        <v>6.082100883999374</v>
+        <v>5.574631394999983</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -594,37 +594,37 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="D5">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E5">
-        <v>847.6196598801471</v>
+        <v>3540.716197219509</v>
       </c>
       <c r="F5">
-        <v>621.1999280021701</v>
+        <v>3569.76363800004</v>
       </c>
       <c r="G5">
-        <v>1662.845473998459</v>
+        <v>6724.021001000096</v>
       </c>
       <c r="H5">
-        <v>1677.799539000262</v>
+        <v>6912.804101999996</v>
       </c>
       <c r="I5">
-        <v>1719.055116998788</v>
+        <v>7008.626993999997</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="K5">
-        <v>1.661931818181818</v>
+        <v>1.940646701388889</v>
       </c>
       <c r="L5">
-        <v>11.40076999296609</v>
+        <v>17.1609692196305</v>
       </c>
       <c r="M5">
-        <v>2.192834344998118</v>
+        <v>7.167427341999996</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -635,37 +635,37 @@
         <v>300</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="D6">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="E6">
-        <v>2760.315895082321</v>
+        <v>3392.40145046032</v>
       </c>
       <c r="F6">
-        <v>2806.251470999996</v>
+        <v>3365.893163499948</v>
       </c>
       <c r="G6">
-        <v>4972.703324998292</v>
+        <v>6482.058333000055</v>
       </c>
       <c r="H6">
-        <v>5154.893612001615</v>
+        <v>6775.970260999998</v>
       </c>
       <c r="I6">
-        <v>5199.139623000519</v>
+        <v>6960.489852000023</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="K6">
-        <v>1.898723323170732</v>
+        <v>1.921657986111111</v>
       </c>
       <c r="L6">
-        <v>10.43304794941332</v>
+        <v>17.67403070880404</v>
       </c>
       <c r="M6">
-        <v>8.14718770699983</v>
+        <v>7.129103829000087</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -682,31 +682,31 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>75.93767370017304</v>
+        <v>50.16766740000094</v>
       </c>
       <c r="F7">
-        <v>71.30912900174735</v>
+        <v>48.74995099999069</v>
       </c>
       <c r="G7">
-        <v>99.82553400186589</v>
+        <v>79.33503999993263</v>
       </c>
       <c r="H7">
-        <v>99.82553400186589</v>
+        <v>79.33503999993263</v>
       </c>
       <c r="I7">
-        <v>132.2375799973088</v>
+        <v>83.45785699998487</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.15625</v>
+        <v>2.14453125</v>
       </c>
       <c r="L7">
-        <v>73.01990357490891</v>
+        <v>112.3795616999731</v>
       </c>
       <c r="M7">
-        <v>0.1369489620010427</v>
+        <v>0.08898415199996634</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -723,31 +723,31 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>189.7406139403029</v>
+        <v>212.4228887799973</v>
       </c>
       <c r="F8">
-        <v>195.9295520009618</v>
+        <v>222.7169684999808</v>
       </c>
       <c r="G8">
-        <v>347.0357999976841</v>
+        <v>355.9956440000178</v>
       </c>
       <c r="H8">
-        <v>349.7361870031455</v>
+        <v>397.9459490000181</v>
       </c>
       <c r="I8">
-        <v>358.9815020022797</v>
+        <v>408.3816959999922</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="K8">
         <v>2.1640625</v>
       </c>
       <c r="L8">
-        <v>129.9064584651769</v>
+        <v>115.2545269793869</v>
       </c>
       <c r="M8">
-        <v>0.3848923339974135</v>
+        <v>0.433822439000096</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -764,31 +764,31 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>326.6049650798232</v>
+        <v>377.632279820001</v>
       </c>
       <c r="F9">
-        <v>322.2438734992465</v>
+        <v>380.8136064999985</v>
       </c>
       <c r="G9">
-        <v>580.3708570019808</v>
+        <v>684.726062999971</v>
       </c>
       <c r="H9">
-        <v>642.3136390003492</v>
+        <v>718.4971100000439</v>
       </c>
       <c r="I9">
-        <v>645.8073339999828</v>
+        <v>775.4877139999508</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
         <v>2.16796875</v>
       </c>
       <c r="L9">
-        <v>143.1396074017308</v>
+        <v>120.7246629726324</v>
       </c>
       <c r="M9">
-        <v>0.6986186549984268</v>
+        <v>0.8283311589999585</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -805,31 +805,31 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>706.5365773900157</v>
+        <v>721.2489311950026</v>
       </c>
       <c r="F10">
-        <v>697.3226570007682</v>
+        <v>732.1470009999871</v>
       </c>
       <c r="G10">
-        <v>1297.108885002672</v>
+        <v>1300.119701999961</v>
       </c>
       <c r="H10">
-        <v>1341.402946000017</v>
+        <v>1370.956985000021</v>
       </c>
       <c r="I10">
-        <v>1353.067207001004</v>
+        <v>1392.881171999989</v>
       </c>
       <c r="J10">
         <v>1.875</v>
       </c>
       <c r="K10">
-        <v>2.15234375</v>
+        <v>2.171875</v>
       </c>
       <c r="L10">
-        <v>136.7689661151276</v>
+        <v>133.9531378958552</v>
       </c>
       <c r="M10">
-        <v>1.462320039998303</v>
+        <v>1.493059462000019</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -846,31 +846,31 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1021.063320213446</v>
+        <v>979.2839264099958</v>
       </c>
       <c r="F11">
-        <v>1027.513540499058</v>
+        <v>980.0802395000119</v>
       </c>
       <c r="G11">
-        <v>1911.751667001226</v>
+        <v>1828.621067000086</v>
       </c>
       <c r="H11">
-        <v>1990.171573997941</v>
+        <v>1892.85517899998</v>
       </c>
       <c r="I11">
-        <v>2040.219562000857</v>
+        <v>1943.460584000036</v>
       </c>
       <c r="J11">
-        <v>1.818181818181818</v>
+        <v>1.363636363636364</v>
       </c>
       <c r="K11">
-        <v>2.16796875</v>
+        <v>2.16015625</v>
       </c>
       <c r="L11">
-        <v>138.2161429933249</v>
+        <v>143.7581300283994</v>
       </c>
       <c r="M11">
-        <v>2.170513468998251</v>
+        <v>2.086838497000031</v>
       </c>
     </row>
   </sheetData>
